--- a/code/Data_table.xlsx
+++ b/code/Data_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordan.watson\Work\covid_desktop\git\AKFIN_WebService\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcallahan\Documents\AKFIN_WebService\AKFIN_WebService\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847754FB-4BCE-4BAD-8FBB-E438CA102B2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17736" windowHeight="6648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +42,6 @@
     <t>Spatial resolution</t>
   </si>
   <si>
-    <t>CRW SST</t>
-  </si>
-  <si>
-    <t>OI SST</t>
-  </si>
-  <si>
     <t>0.01 degrees</t>
   </si>
   <si>
@@ -89,19 +84,25 @@
     <t>https://coastwatch.pfeg.noaa.gov/erddap/griddap/jplMURSST41.html</t>
   </si>
   <si>
-    <t>JPL MUR MEaSUREs Project. 2015</t>
-  </si>
-  <si>
     <t>Liu et al., 2015</t>
   </si>
   <si>
-    <t>Reynolds et al. 2007</t>
+    <t>Coral Reef Watch (CRW)</t>
+  </si>
+  <si>
+    <t>Optimal Interpolation (OI)</t>
+  </si>
+  <si>
+    <t>Chin et al., 2017</t>
+  </si>
+  <si>
+    <t>Reynolds et al., 2007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,19 +413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,91 +440,92 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/code/Data_table.xlsx
+++ b/code/Data_table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcallahan\Documents\AKFIN_WebService\AKFIN_WebService\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordan.watson\Work\covid_desktop\git\AKFIN_WebService\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847754FB-4BCE-4BAD-8FBB-E438CA102B2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,15 +41,6 @@
     <t>Spatial resolution</t>
   </si>
   <si>
-    <t>0.01 degrees</t>
-  </si>
-  <si>
-    <t>0.05 degrees</t>
-  </si>
-  <si>
-    <t>0.25 degrees</t>
-  </si>
-  <si>
     <t>1982 - present</t>
   </si>
   <si>
@@ -97,14 +87,31 @@
   </si>
   <si>
     <t>Reynolds et al., 2007</t>
+  </si>
+  <si>
+    <t>25 km</t>
+  </si>
+  <si>
+    <t>5 km</t>
+  </si>
+  <si>
+    <t>1 km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,12 +135,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,115 +524,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
